--- a/OPFLIX/Modelagem/Modelagem_Excel.xlsx
+++ b/OPFLIX/Modelagem/Modelagem_Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20348"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DCDEF15-D401-4505-8A31-0B980CE3BB9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF487E89-A778-433A-931B-4B3A4F727C27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -49,18 +49,6 @@
     <t>Helena</t>
   </si>
   <si>
-    <t>Amador</t>
-  </si>
-  <si>
-    <t>e@e.com</t>
-  </si>
-  <si>
-    <t>h@h.com</t>
-  </si>
-  <si>
-    <t>a@a.com</t>
-  </si>
-  <si>
     <t>Perfil</t>
   </si>
   <si>
@@ -155,13 +143,34 @@
   </si>
   <si>
     <t xml:space="preserve"> A série gira em torno de Scott McCall, um estudante do ensino médio que vive na cidade de Beacon Hills. A vida de Scott muda drasticamente quando ele é mordido por um lobisomem em uma noite, enquanto vagava pela floresta em busca de um cadáver junto ao seu melhor amigo Stiles.</t>
+  </si>
+  <si>
+    <t>erik@email.com</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>rob@email.com</t>
+  </si>
+  <si>
+    <t>helena@email.com</t>
+  </si>
+  <si>
+    <t>Cassiana</t>
+  </si>
+  <si>
+    <t>cassiana@email.com</t>
+  </si>
+  <si>
+    <t>TipoPerfil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +197,14 @@
       <color rgb="FF545454"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -281,23 +298,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -315,6 +317,29 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -596,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I31"/>
+  <dimension ref="B3:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,389 +635,410 @@
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6" t="s">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="9">
+        <v>123456</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="9">
+        <v>3110</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="9">
+        <v>123456</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>40980</v>
+      </c>
+      <c r="D12" s="2">
+        <v>120</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7">
+        <v>41113</v>
+      </c>
+      <c r="D13" s="2">
+        <v>80</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7">
+        <v>37927</v>
+      </c>
+      <c r="D14" s="2">
+        <v>540</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="7">
+        <v>43155</v>
+      </c>
+      <c r="D15" s="2">
+        <v>190</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="E17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="H17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="2">
+        <v>3</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="H23" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7">
-        <v>123123</v>
-      </c>
-      <c r="G4" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="8" t="s">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F5" s="7">
-        <v>321321</v>
-      </c>
-      <c r="G5" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="7">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="7">
-        <v>123456</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11">
-        <v>40980</v>
-      </c>
-      <c r="D10" s="7">
-        <v>120</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="7">
-        <v>2</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
-        <v>2</v>
-      </c>
-      <c r="C11" s="12">
-        <v>41113</v>
-      </c>
-      <c r="D11" s="7">
-        <v>80</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
-        <v>3</v>
-      </c>
-      <c r="C12" s="12">
-        <v>37927</v>
-      </c>
-      <c r="D12" s="7">
-        <v>540</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="7">
-        <v>2</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
-        <v>4</v>
-      </c>
-      <c r="C13" s="12">
-        <v>43155</v>
-      </c>
-      <c r="D13" s="7">
-        <v>190</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="7">
-        <v>3</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="H15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
-        <v>2</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7">
-        <v>2</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="7">
-        <v>2</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="7">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7">
-        <v>3</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="7">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="7">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="H21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="7">
-        <v>2</v>
-      </c>
-      <c r="C22" s="7">
-        <v>3</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="7">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7">
-        <v>4</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="7">
-        <v>3</v>
-      </c>
-      <c r="C24" s="7">
-        <v>4</v>
-      </c>
-      <c r="E24" s="7">
-        <v>2</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="7">
-        <v>2</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -1002,20 +1048,21 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H17:I17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{ABB76E25-360C-4099-A1C3-D03EBC696B8E}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{5903D5EF-1291-40A6-B9D5-C53FCFECD16F}"/>
-    <hyperlink ref="E6" r:id="rId3" xr:uid="{2DA0A6F7-E646-4C3B-92EA-68726A28EE2A}"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{ABB76E25-360C-4099-A1C3-D03EBC696B8E}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{86618E19-F77C-46C4-ABCB-A047437F2FC2}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{D751FB7F-6527-4D77-8E4B-B2172883D3C0}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{A9F5A900-E4C4-42D0-93B2-37239B416504}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>